--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_33.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2252466.496725261</v>
+        <v>2248822.296761059</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2295956.101218069</v>
+        <v>2341983.383206077</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791233</v>
+        <v>419463.0933791247</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8455411.364089102</v>
+        <v>8454092.591748983</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>142.8144029945466</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>155.8850409247634</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -750,13 +750,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>24.38506177441067</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
         <v>220.3146016126436</v>
@@ -804,7 +804,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>165.7906910036073</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="4">
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>55.24675346159211</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>78.75187751641158</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>33.36512478689784</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>99.47289031559326</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,10 +978,10 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>29.64325171768899</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>118.1455703172719</v>
       </c>
       <c r="F6" t="n">
         <v>123.1874880556995</v>
@@ -990,10 +990,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1029,13 +1029,13 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>90.64602408636725</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>214.017543089518</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>384.6161533385549</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>93.86158641218542</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>116.876383545772</v>
+        <v>13.22962011024177</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -1376,19 +1376,19 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603044</v>
+        <v>74.07584602384598</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
-        <v>315.0398534825604</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05474244684316432</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T11" t="n">
         <v>127.274321941861</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C13" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507363</v>
+        <v>60.01194954507351</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H13" t="n">
-        <v>59.93249105380448</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497641</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S13" t="n">
         <v>106.7966485049596</v>
@@ -1610,10 +1610,10 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>273.4823810173262</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603044</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
@@ -1622,10 +1622,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T14" t="n">
         <v>127.274321941861</v>
@@ -1664,10 +1664,10 @@
         <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
-        <v>15.42428558140244</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X14" t="n">
         <v>291.5668045419573</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C16" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H16" t="n">
-        <v>59.93249105380449</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S16" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T16" t="n">
         <v>139.3705868391317</v>
@@ -1862,7 +1862,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
         <v>90.90562710059308</v>
@@ -2096,7 +2096,7 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135892</v>
       </c>
       <c r="I20" t="n">
         <v>6.593776422875408</v>
@@ -2126,10 +2126,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277373</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
         <v>90.90562710059308</v>
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
       </c>
       <c r="D26" t="n">
-        <v>49.17235827735345</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2612,16 +2612,16 @@
         <v>159.2039277954309</v>
       </c>
       <c r="V26" t="n">
-        <v>244.6944667292003</v>
+        <v>123.1868681289326</v>
       </c>
       <c r="W26" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2770,13 +2770,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2798,7 +2798,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2807,10 +2807,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>105.3433468545909</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414337</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U29" t="n">
-        <v>147.6317885064605</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V29" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035423</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380451</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C32" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D32" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E32" t="n">
         <v>268.1977203190365</v>
@@ -3044,10 +3044,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H32" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I32" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T32" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U32" t="n">
         <v>122.835232954163</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C34" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D34" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E34" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F34" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G34" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H34" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I34" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T34" t="n">
         <v>103.0018919978638</v>
@@ -3247,13 +3247,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W34" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X34" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y34" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="35">
@@ -3521,7 +3521,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875645</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>284.1280864677955</v>
+        <v>289.0582874597571</v>
       </c>
       <c r="C41" t="n">
-        <v>115.8120563888461</v>
+        <v>281.8122356875729</v>
       </c>
       <c r="D41" t="n">
-        <v>269.2250057090115</v>
+        <v>143.6390380197424</v>
       </c>
       <c r="E41" t="n">
-        <v>286.1959778481335</v>
+        <v>291.1261788400951</v>
       </c>
       <c r="F41" t="n">
-        <v>300.3637822988346</v>
+        <v>305.2939832907962</v>
       </c>
       <c r="G41" t="n">
-        <v>296.6694161703894</v>
+        <v>301.599617162351</v>
       </c>
       <c r="H41" t="n">
-        <v>208.4805081426868</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>24.5920339519724</v>
+        <v>29.52223494393398</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>52.48670772187252</v>
+        <v>57.4169087138341</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>113.8340856216517</v>
       </c>
       <c r="U41" t="n">
-        <v>140.8334904832599</v>
+        <v>145.7636914752215</v>
       </c>
       <c r="V41" t="n">
-        <v>226.3240294170294</v>
+        <v>231.254230408991</v>
       </c>
       <c r="W41" t="n">
-        <v>254.927332894908</v>
+        <v>259.8575338868696</v>
       </c>
       <c r="X41" t="n">
-        <v>273.1963672297863</v>
+        <v>278.1265682217479</v>
       </c>
       <c r="Y41" t="n">
-        <v>280.1640902021174</v>
+        <v>285.0942911940791</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>70.99422671790084</v>
+        <v>75.92442770986243</v>
       </c>
       <c r="C43" t="n">
-        <v>56.14135496818325</v>
+        <v>61.07155596014483</v>
       </c>
       <c r="D43" t="n">
-        <v>41.71507018002298</v>
+        <v>46.64527117198456</v>
       </c>
       <c r="E43" t="n">
-        <v>41.64151223290209</v>
+        <v>46.57171322486367</v>
       </c>
       <c r="F43" t="n">
-        <v>43.39096365266936</v>
+        <v>48.32116464463094</v>
       </c>
       <c r="G43" t="n">
-        <v>54.20980157506149</v>
+        <v>59.14000256702307</v>
       </c>
       <c r="H43" t="n">
-        <v>41.56205374163353</v>
+        <v>46.49225473359512</v>
       </c>
       <c r="I43" t="n">
-        <v>19.40176932280546</v>
+        <v>24.33197031476705</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>10.30026768726138</v>
+        <v>15.23046867922297</v>
       </c>
       <c r="S43" t="n">
-        <v>88.4262111927887</v>
+        <v>93.35641218475028</v>
       </c>
       <c r="T43" t="n">
-        <v>121.0001495269608</v>
+        <v>125.9303505189224</v>
       </c>
       <c r="U43" t="n">
-        <v>170.2226920540306</v>
+        <v>175.1528930459922</v>
       </c>
       <c r="V43" t="n">
-        <v>150.9578399408966</v>
+        <v>155.8880409328582</v>
       </c>
       <c r="W43" t="n">
-        <v>168.1353862616467</v>
+        <v>173.0655872536083</v>
       </c>
       <c r="X43" t="n">
-        <v>119.3778072083593</v>
+        <v>124.3080082003209</v>
       </c>
       <c r="Y43" t="n">
-        <v>108.5192287850357</v>
+        <v>113.4494297769972</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>14.15422353134062</v>
+        <v>289.0582874597571</v>
       </c>
       <c r="C44" t="n">
-        <v>276.8820346956113</v>
+        <v>281.8122356875729</v>
       </c>
       <c r="D44" t="n">
-        <v>269.2250057090115</v>
+        <v>173.1612729636769</v>
       </c>
       <c r="E44" t="n">
-        <v>286.1959778481335</v>
+        <v>291.1261788400951</v>
       </c>
       <c r="F44" t="n">
-        <v>300.3637822988346</v>
+        <v>305.2939832907962</v>
       </c>
       <c r="G44" t="n">
-        <v>296.6694161703894</v>
+        <v>301.599617162351</v>
       </c>
       <c r="H44" t="n">
-        <v>208.4805081426868</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>24.59203395197238</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>52.48670772187251</v>
+        <v>57.41690871383413</v>
       </c>
       <c r="T44" t="n">
-        <v>108.9038846296901</v>
+        <v>113.8340856216517</v>
       </c>
       <c r="U44" t="n">
-        <v>140.8334904832599</v>
+        <v>145.7636914752215</v>
       </c>
       <c r="V44" t="n">
-        <v>226.3240294170294</v>
+        <v>231.254230408991</v>
       </c>
       <c r="W44" t="n">
-        <v>254.927332894908</v>
+        <v>259.8575338868696</v>
       </c>
       <c r="X44" t="n">
-        <v>273.1963672297863</v>
+        <v>278.1265682217479</v>
       </c>
       <c r="Y44" t="n">
-        <v>280.1640902021174</v>
+        <v>285.0942911940791</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>70.99422671790083</v>
+        <v>75.92442770986246</v>
       </c>
       <c r="C46" t="n">
-        <v>56.14135496818324</v>
+        <v>61.07155596014486</v>
       </c>
       <c r="D46" t="n">
-        <v>41.71507018002296</v>
+        <v>46.64527117198459</v>
       </c>
       <c r="E46" t="n">
-        <v>41.64151223290207</v>
+        <v>46.5717132248637</v>
       </c>
       <c r="F46" t="n">
-        <v>43.39096365266934</v>
+        <v>48.32116464463097</v>
       </c>
       <c r="G46" t="n">
-        <v>54.20980157506148</v>
+        <v>59.1400025670231</v>
       </c>
       <c r="H46" t="n">
-        <v>41.56205374163352</v>
+        <v>46.49225473359515</v>
       </c>
       <c r="I46" t="n">
-        <v>19.40176932280545</v>
+        <v>24.33197031476708</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>10.30026768726137</v>
+        <v>15.23046867922299</v>
       </c>
       <c r="S46" t="n">
-        <v>88.42621119278868</v>
+        <v>93.35641218475031</v>
       </c>
       <c r="T46" t="n">
-        <v>121.0001495269608</v>
+        <v>125.9303505189224</v>
       </c>
       <c r="U46" t="n">
-        <v>170.2226920540306</v>
+        <v>175.1528930459922</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9578399408966</v>
+        <v>155.8880409328582</v>
       </c>
       <c r="W46" t="n">
-        <v>168.1353862616467</v>
+        <v>173.0655872536083</v>
       </c>
       <c r="X46" t="n">
-        <v>119.3778072083593</v>
+        <v>124.3080082003209</v>
       </c>
       <c r="Y46" t="n">
-        <v>108.5192287850356</v>
+        <v>113.4494297769973</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>201.2956681715721</v>
+        <v>789.5575156353032</v>
       </c>
       <c r="C2" t="n">
-        <v>201.2956681715721</v>
+        <v>789.5575156353032</v>
       </c>
       <c r="D2" t="n">
-        <v>201.2956681715721</v>
+        <v>789.5575156353032</v>
       </c>
       <c r="E2" t="n">
-        <v>201.2956681715721</v>
+        <v>789.5575156353032</v>
       </c>
       <c r="F2" t="n">
-        <v>188.441633741954</v>
+        <v>776.703481205685</v>
       </c>
       <c r="G2" t="n">
-        <v>179.3192822703612</v>
+        <v>363.5407256936881</v>
       </c>
       <c r="H2" t="n">
-        <v>179.3192822703612</v>
+        <v>39.45767526017876</v>
       </c>
       <c r="I2" t="n">
-        <v>40.982165362826</v>
+        <v>39.45767526017876</v>
       </c>
       <c r="J2" t="n">
-        <v>40.982165362826</v>
+        <v>184.1074481690069</v>
       </c>
       <c r="K2" t="n">
-        <v>40.982165362826</v>
+        <v>208.0792072956633</v>
       </c>
       <c r="L2" t="n">
-        <v>246.5725823875061</v>
+        <v>696.3679386403754</v>
       </c>
       <c r="M2" t="n">
-        <v>753.7268787524779</v>
+        <v>1184.656669985088</v>
       </c>
       <c r="N2" t="n">
-        <v>1260.88117511745</v>
+        <v>1184.656669985088</v>
       </c>
       <c r="O2" t="n">
-        <v>1700.920776009778</v>
+        <v>1624.696270877416</v>
       </c>
       <c r="P2" t="n">
-        <v>2049.1082681413</v>
+        <v>1972.883763008938</v>
       </c>
       <c r="Q2" t="n">
-        <v>2049.1082681413</v>
+        <v>1972.883763008938</v>
       </c>
       <c r="R2" t="n">
-        <v>2011.115354426822</v>
+        <v>1934.89084929446</v>
       </c>
       <c r="S2" t="n">
-        <v>1844.601799367872</v>
+        <v>1768.37729423551</v>
       </c>
       <c r="T2" t="n">
-        <v>1844.601799367872</v>
+        <v>1544.876691794927</v>
       </c>
       <c r="U2" t="n">
-        <v>1844.601799367872</v>
+        <v>1289.123962229526</v>
       </c>
       <c r="V2" t="n">
-        <v>1502.494990071391</v>
+        <v>947.017152933044</v>
       </c>
       <c r="W2" t="n">
-        <v>1131.495955039678</v>
+        <v>789.5575156353032</v>
       </c>
       <c r="X2" t="n">
-        <v>742.0433499727352</v>
+        <v>789.5575156353032</v>
       </c>
       <c r="Y2" t="n">
-        <v>345.5526408933363</v>
+        <v>789.5575156353032</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>752.0507321034579</v>
+        <v>605.7105456142945</v>
       </c>
       <c r="C3" t="n">
-        <v>601.3965016635501</v>
+        <v>455.0563151743867</v>
       </c>
       <c r="D3" t="n">
-        <v>471.3075342850304</v>
+        <v>324.967347795867</v>
       </c>
       <c r="E3" t="n">
-        <v>334.8610433959182</v>
+        <v>188.5208569067547</v>
       </c>
       <c r="F3" t="n">
-        <v>210.42923727905</v>
+        <v>64.08905078988651</v>
       </c>
       <c r="G3" t="n">
-        <v>90.36941935091441</v>
+        <v>39.45767526017876</v>
       </c>
       <c r="H3" t="n">
-        <v>90.36941935091441</v>
+        <v>39.45767526017876</v>
       </c>
       <c r="I3" t="n">
-        <v>40.982165362826</v>
+        <v>39.45767526017876</v>
       </c>
       <c r="J3" t="n">
-        <v>154.0971475825534</v>
+        <v>152.5726574799061</v>
       </c>
       <c r="K3" t="n">
-        <v>473.8362936447799</v>
+        <v>152.5726574799061</v>
       </c>
       <c r="L3" t="n">
-        <v>957.402379543093</v>
+        <v>636.1387433782194</v>
       </c>
       <c r="M3" t="n">
-        <v>1409.121807870012</v>
+        <v>636.1387433782194</v>
       </c>
       <c r="N3" t="n">
-        <v>1409.121807870012</v>
+        <v>1124.427474722931</v>
       </c>
       <c r="O3" t="n">
-        <v>1409.121807870012</v>
+        <v>1332.89730273765</v>
       </c>
       <c r="P3" t="n">
-        <v>1814.743176586409</v>
+        <v>1738.518671454047</v>
       </c>
       <c r="Q3" t="n">
-        <v>2049.1082681413</v>
+        <v>1972.883763008938</v>
       </c>
       <c r="R3" t="n">
-        <v>2025.191225039365</v>
+        <v>1948.966719907002</v>
       </c>
       <c r="S3" t="n">
-        <v>1890.260547939233</v>
+        <v>1814.036042806871</v>
       </c>
       <c r="T3" t="n">
-        <v>1713.276736138142</v>
+        <v>1637.05223100578</v>
       </c>
       <c r="U3" t="n">
-        <v>1713.276736138142</v>
+        <v>1426.989087684422</v>
       </c>
       <c r="V3" t="n">
-        <v>1490.736734509209</v>
+        <v>1204.449086055489</v>
       </c>
       <c r="W3" t="n">
-        <v>1260.619488642496</v>
+        <v>974.3318401887755</v>
       </c>
       <c r="X3" t="n">
-        <v>1071.312410992507</v>
+        <v>785.0247625387872</v>
       </c>
       <c r="Y3" t="n">
-        <v>903.8470665444192</v>
+        <v>605.7105456142945</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>757.2211692130771</v>
+        <v>240.0410633680876</v>
       </c>
       <c r="C4" t="n">
-        <v>757.2211692130771</v>
+        <v>69.83594543407682</v>
       </c>
       <c r="D4" t="n">
-        <v>601.5880561155918</v>
+        <v>69.83594543407682</v>
       </c>
       <c r="E4" t="n">
-        <v>522.0407050889135</v>
+        <v>69.83594543407682</v>
       </c>
       <c r="F4" t="n">
-        <v>364.7147703018865</v>
+        <v>69.83594543407682</v>
       </c>
       <c r="G4" t="n">
-        <v>196.460716401332</v>
+        <v>69.83594543407682</v>
       </c>
       <c r="H4" t="n">
-        <v>40.982165362826</v>
+        <v>69.83594543407682</v>
       </c>
       <c r="I4" t="n">
-        <v>40.982165362826</v>
+        <v>69.83594543407682</v>
       </c>
       <c r="J4" t="n">
-        <v>40.982165362826</v>
+        <v>39.45767526017876</v>
       </c>
       <c r="K4" t="n">
-        <v>122.8172064727679</v>
+        <v>121.2927163701206</v>
       </c>
       <c r="L4" t="n">
-        <v>286.9448463465677</v>
+        <v>285.4203562439204</v>
       </c>
       <c r="M4" t="n">
-        <v>473.2364246848317</v>
+        <v>471.7119345821844</v>
       </c>
       <c r="N4" t="n">
-        <v>656.4260587160409</v>
+        <v>654.9015686133937</v>
       </c>
       <c r="O4" t="n">
-        <v>819.1308257577489</v>
+        <v>817.6063356551017</v>
       </c>
       <c r="P4" t="n">
-        <v>939.0069915343274</v>
+        <v>937.4825014316802</v>
       </c>
       <c r="Q4" t="n">
-        <v>942.4291879043784</v>
+        <v>940.9046978017312</v>
       </c>
       <c r="R4" t="n">
-        <v>942.4291879043784</v>
+        <v>817.0037084343082</v>
       </c>
       <c r="S4" t="n">
-        <v>942.4291879043784</v>
+        <v>817.0037084343082</v>
       </c>
       <c r="T4" t="n">
-        <v>942.4291879043784</v>
+        <v>581.2846566025423</v>
       </c>
       <c r="U4" t="n">
-        <v>942.4291879043784</v>
+        <v>295.8458648444433</v>
       </c>
       <c r="V4" t="n">
-        <v>942.4291879043784</v>
+        <v>295.8458648444433</v>
       </c>
       <c r="W4" t="n">
-        <v>942.4291879043784</v>
+        <v>295.8458648444433</v>
       </c>
       <c r="X4" t="n">
-        <v>942.4291879043784</v>
+        <v>295.8458648444433</v>
       </c>
       <c r="Y4" t="n">
-        <v>942.4291879043784</v>
+        <v>295.8458648444433</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1184.25750723502</v>
+        <v>499.1766114511856</v>
       </c>
       <c r="C5" t="n">
-        <v>791.0820057379503</v>
+        <v>499.1766114511856</v>
       </c>
       <c r="D5" t="n">
-        <v>791.0820057379503</v>
+        <v>499.1766114511856</v>
       </c>
       <c r="E5" t="n">
-        <v>791.0820057379503</v>
+        <v>499.1766114511856</v>
       </c>
       <c r="F5" t="n">
-        <v>778.2279713083321</v>
+        <v>486.3225770215674</v>
       </c>
       <c r="G5" t="n">
-        <v>365.0652157963353</v>
+        <v>73.15982150957052</v>
       </c>
       <c r="H5" t="n">
-        <v>40.982165362826</v>
+        <v>39.45767526017876</v>
       </c>
       <c r="I5" t="n">
-        <v>40.982165362826</v>
+        <v>39.45767526017876</v>
       </c>
       <c r="J5" t="n">
-        <v>185.6319382716541</v>
+        <v>184.1074481690069</v>
       </c>
       <c r="K5" t="n">
-        <v>544.614294299116</v>
+        <v>543.0898041964688</v>
       </c>
       <c r="L5" t="n">
-        <v>1037.934586017645</v>
+        <v>951.5619793917555</v>
       </c>
       <c r="M5" t="n">
-        <v>1037.934586017645</v>
+        <v>1439.850710736468</v>
       </c>
       <c r="N5" t="n">
-        <v>1076.035614976501</v>
+        <v>1439.850710736468</v>
       </c>
       <c r="O5" t="n">
-        <v>1516.07521586883</v>
+        <v>1439.850710736468</v>
       </c>
       <c r="P5" t="n">
-        <v>1864.262708000351</v>
+        <v>1788.038202867989</v>
       </c>
       <c r="Q5" t="n">
-        <v>2049.1082681413</v>
+        <v>1972.883763008938</v>
       </c>
       <c r="R5" t="n">
-        <v>2049.1082681413</v>
+        <v>1934.89084929446</v>
       </c>
       <c r="S5" t="n">
-        <v>1882.594713082351</v>
+        <v>1768.37729423551</v>
       </c>
       <c r="T5" t="n">
-        <v>1782.117046096903</v>
+        <v>1544.876691794927</v>
       </c>
       <c r="U5" t="n">
-        <v>1526.364316531502</v>
+        <v>1289.123962229526</v>
       </c>
       <c r="V5" t="n">
-        <v>1184.25750723502</v>
+        <v>1289.123962229526</v>
       </c>
       <c r="W5" t="n">
-        <v>1184.25750723502</v>
+        <v>1289.123962229526</v>
       </c>
       <c r="X5" t="n">
-        <v>1184.25750723502</v>
+        <v>899.6713571625825</v>
       </c>
       <c r="Y5" t="n">
-        <v>1184.25750723502</v>
+        <v>899.6713571625825</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>740.2018596270534</v>
+        <v>684.0314570400462</v>
       </c>
       <c r="C6" t="n">
-        <v>589.5476291871456</v>
+        <v>533.3772266001384</v>
       </c>
       <c r="D6" t="n">
-        <v>559.6049506844295</v>
+        <v>403.2882592216188</v>
       </c>
       <c r="E6" t="n">
-        <v>423.1584597953172</v>
+        <v>283.9492993051825</v>
       </c>
       <c r="F6" t="n">
-        <v>298.7266536784491</v>
+        <v>159.5174931883143</v>
       </c>
       <c r="G6" t="n">
-        <v>178.6668357503135</v>
+        <v>39.45767526017876</v>
       </c>
       <c r="H6" t="n">
-        <v>90.36941935091441</v>
+        <v>39.45767526017876</v>
       </c>
       <c r="I6" t="n">
-        <v>40.982165362826</v>
+        <v>39.45767526017876</v>
       </c>
       <c r="J6" t="n">
-        <v>40.982165362826</v>
+        <v>152.5726574799061</v>
       </c>
       <c r="K6" t="n">
-        <v>44.07929314807149</v>
+        <v>472.3118035421326</v>
       </c>
       <c r="L6" t="n">
-        <v>527.6453790463847</v>
+        <v>955.8778894404459</v>
       </c>
       <c r="M6" t="n">
-        <v>1034.799675411356</v>
+        <v>955.8778894404459</v>
       </c>
       <c r="N6" t="n">
-        <v>1541.953971776328</v>
+        <v>1444.166620785158</v>
       </c>
       <c r="O6" t="n">
-        <v>2049.1082681413</v>
+        <v>1567.26239429254</v>
       </c>
       <c r="P6" t="n">
-        <v>2049.1082681413</v>
+        <v>1972.883763008938</v>
       </c>
       <c r="Q6" t="n">
-        <v>2049.1082681413</v>
+        <v>1972.883763008938</v>
       </c>
       <c r="R6" t="n">
-        <v>2025.191225039365</v>
+        <v>1948.966719907002</v>
       </c>
       <c r="S6" t="n">
-        <v>1890.260547939233</v>
+        <v>1814.036042806871</v>
       </c>
       <c r="T6" t="n">
-        <v>1713.276736138142</v>
+        <v>1637.05223100578</v>
       </c>
       <c r="U6" t="n">
-        <v>1713.276736138142</v>
+        <v>1426.989087684422</v>
       </c>
       <c r="V6" t="n">
-        <v>1490.736734509209</v>
+        <v>1204.449086055489</v>
       </c>
       <c r="W6" t="n">
-        <v>1260.619488642496</v>
+        <v>1204.449086055489</v>
       </c>
       <c r="X6" t="n">
-        <v>1071.312410992507</v>
+        <v>1015.1420084055</v>
       </c>
       <c r="Y6" t="n">
-        <v>891.9981940680148</v>
+        <v>835.8277914810076</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>421.2713443145134</v>
+        <v>39.45767526017876</v>
       </c>
       <c r="C7" t="n">
-        <v>421.2713443145134</v>
+        <v>39.45767526017876</v>
       </c>
       <c r="D7" t="n">
-        <v>265.6382312170282</v>
+        <v>39.45767526017876</v>
       </c>
       <c r="E7" t="n">
-        <v>265.6382312170282</v>
+        <v>39.45767526017876</v>
       </c>
       <c r="F7" t="n">
-        <v>174.0765907257481</v>
+        <v>39.45767526017876</v>
       </c>
       <c r="G7" t="n">
-        <v>174.0765907257481</v>
+        <v>39.45767526017876</v>
       </c>
       <c r="H7" t="n">
-        <v>174.0765907257481</v>
+        <v>39.45767526017876</v>
       </c>
       <c r="I7" t="n">
-        <v>40.982165362826</v>
+        <v>39.45767526017876</v>
       </c>
       <c r="J7" t="n">
-        <v>40.982165362826</v>
+        <v>39.45767526017876</v>
       </c>
       <c r="K7" t="n">
-        <v>122.8172064727679</v>
+        <v>121.2927163701206</v>
       </c>
       <c r="L7" t="n">
-        <v>286.9448463465677</v>
+        <v>285.4203562439204</v>
       </c>
       <c r="M7" t="n">
-        <v>473.2364246848317</v>
+        <v>471.7119345821844</v>
       </c>
       <c r="N7" t="n">
-        <v>656.4260587160409</v>
+        <v>654.9015686133937</v>
       </c>
       <c r="O7" t="n">
-        <v>819.1308257577489</v>
+        <v>817.6063356551017</v>
       </c>
       <c r="P7" t="n">
-        <v>939.0069915343274</v>
+        <v>937.4825014316802</v>
       </c>
       <c r="Q7" t="n">
-        <v>942.4291879043784</v>
+        <v>940.9046978017312</v>
       </c>
       <c r="R7" t="n">
-        <v>942.4291879043784</v>
+        <v>940.9046978017312</v>
       </c>
       <c r="S7" t="n">
-        <v>942.4291879043784</v>
+        <v>940.9046978017312</v>
       </c>
       <c r="T7" t="n">
-        <v>706.7101360726125</v>
+        <v>724.7253613476727</v>
       </c>
       <c r="U7" t="n">
-        <v>421.2713443145134</v>
+        <v>724.7253613476727</v>
       </c>
       <c r="V7" t="n">
-        <v>421.2713443145134</v>
+        <v>458.7460161684969</v>
       </c>
       <c r="W7" t="n">
-        <v>421.2713443145134</v>
+        <v>458.7460161684969</v>
       </c>
       <c r="X7" t="n">
-        <v>421.2713443145134</v>
+        <v>224.66569395148</v>
       </c>
       <c r="Y7" t="n">
-        <v>421.2713443145134</v>
+        <v>224.66569395148</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1371.298257135899</v>
+        <v>1285.397995218369</v>
       </c>
       <c r="C8" t="n">
-        <v>1371.298257135899</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="D8" t="n">
-        <v>985.8571283525664</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="E8" t="n">
-        <v>583.2736034691109</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="F8" t="n">
-        <v>194.7724384806716</v>
+        <v>879.3684592916816</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>466.2057037796847</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>142.1226533461754</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4805,10 +4805,10 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>538.1002202902207</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>1031.420512008749</v>
       </c>
       <c r="M8" t="n">
         <v>1577.42141205333</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2109.895775511779</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>1767.788966215297</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W8" t="n">
-        <v>1767.788966215297</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="X8" t="n">
-        <v>1767.788966215297</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="Y8" t="n">
-        <v>1371.298257135899</v>
+        <v>1285.397995218369</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>194.5661265746817</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>678.132212472995</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="M9" t="n">
-        <v>1263.630217479597</v>
+        <v>1065.6651033901</v>
       </c>
       <c r="N9" t="n">
-        <v>1849.128222486199</v>
+        <v>1651.163108396702</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>830.7030395665587</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="U10" t="n">
-        <v>830.7030395665587</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="V10" t="n">
-        <v>564.7236943873829</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="W10" t="n">
-        <v>281.3932923185605</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>232.5209887928449</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1320.171044252415</v>
+        <v>1320.171044252416</v>
       </c>
       <c r="C11" t="n">
-        <v>1021.936224042533</v>
+        <v>1021.936224042535</v>
       </c>
       <c r="D11" t="n">
-        <v>731.4357765463897</v>
+        <v>731.4357765463911</v>
       </c>
       <c r="E11" t="n">
-        <v>423.7929329501223</v>
+        <v>656.6116896536174</v>
       </c>
       <c r="F11" t="n">
-        <v>423.7929329501223</v>
+        <v>334.6579324707835</v>
       </c>
       <c r="G11" t="n">
-        <v>105.5708587253139</v>
+        <v>334.6579324707835</v>
       </c>
       <c r="H11" t="n">
-        <v>105.5155633244623</v>
+        <v>105.5155633244625</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411549</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5060,31 +5060,31 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q11" t="n">
-        <v>3105.956385205774</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R11" t="n">
-        <v>3105.956385205774</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3034.383511434014</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>2905.823590280619</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>2745.011542002406</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V11" t="n">
-        <v>2497.845413993113</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W11" t="n">
-        <v>2221.787060248589</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X11" t="n">
-        <v>1927.275136468834</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y11" t="n">
-        <v>1625.725108676623</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="12">
@@ -5103,10 +5103,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E12" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F12" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G12" t="n">
         <v>199.803798091603</v>
@@ -5115,28 +5115,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I12" t="n">
-        <v>62.11912770411549</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860693</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M12" t="n">
-        <v>1458.313011372373</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5176,52 +5176,52 @@
         <v>493.0843669551008</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082783</v>
+        <v>417.8199303082785</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979814</v>
+        <v>357.1274984979817</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443717</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F13" t="n">
-        <v>234.124114144533</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G13" t="n">
-        <v>160.8107415311669</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H13" t="n">
         <v>100.2728717798493</v>
       </c>
       <c r="I13" t="n">
-        <v>62.11912770411549</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K13" t="n">
         <v>300.2831496757666</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791398</v>
+        <v>557.4621512791394</v>
       </c>
       <c r="M13" t="n">
-        <v>836.8050913469772</v>
+        <v>836.8050913469768</v>
       </c>
       <c r="N13" t="n">
-        <v>1113.04608710776</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O13" t="n">
         <v>1368.802215879041</v>
       </c>
       <c r="P13" t="n">
-        <v>1581.729743385193</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q13" t="n">
-        <v>1678.203301484818</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R13" t="n">
-        <v>1649.242993404583</v>
+        <v>1649.242993404582</v>
       </c>
       <c r="S13" t="n">
         <v>1541.36759087432</v>
@@ -5236,10 +5236,10 @@
         <v>1039.052445966845</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852104</v>
+        <v>850.6627251852105</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553821</v>
+        <v>711.5230842553819</v>
       </c>
       <c r="Y13" t="n">
         <v>583.3517043592137</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1827.815439560371</v>
+        <v>1320.171044252416</v>
       </c>
       <c r="C14" t="n">
-        <v>1529.58061935049</v>
+        <v>1021.936224042535</v>
       </c>
       <c r="D14" t="n">
-        <v>1239.080171854346</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="E14" t="n">
-        <v>931.4373282580787</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="F14" t="n">
-        <v>609.4835710752448</v>
+        <v>423.7376375492708</v>
       </c>
       <c r="G14" t="n">
-        <v>291.2614968504365</v>
+        <v>105.5155633244623</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411549</v>
+        <v>105.5155633244623</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411549</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129435</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404052</v>
+        <v>565.7512566404059</v>
       </c>
       <c r="L14" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M14" t="n">
-        <v>1605.072448403514</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N14" t="n">
-        <v>2132.883732040976</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O14" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P14" t="n">
-        <v>2921.110825064826</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q14" t="n">
-        <v>3105.956385205774</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R14" t="n">
-        <v>3105.956385205774</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3034.383511434013</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>2905.823590280618</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>2745.011542002405</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V14" t="n">
-        <v>2729.431455556545</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W14" t="n">
-        <v>2729.431455556545</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X14" t="n">
-        <v>2434.91953177679</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y14" t="n">
-        <v>2133.369503984579</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="15">
@@ -5340,10 +5340,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E15" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F15" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G15" t="n">
         <v>199.803798091603</v>
@@ -5352,25 +5352,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I15" t="n">
-        <v>62.11912770411549</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411549</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.8582737663419</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>456.9185815712236</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1084.690231197905</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1740.468202408464</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408464</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P15" t="n">
         <v>2146.089571124861</v>
@@ -5413,37 +5413,37 @@
         <v>493.0843669551002</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082777</v>
+        <v>417.8199303082778</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979808</v>
+        <v>357.1274984979809</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443717</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F16" t="n">
-        <v>234.124114144533</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G16" t="n">
-        <v>160.8107415311669</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H16" t="n">
         <v>100.2728717798493</v>
       </c>
       <c r="I16" t="n">
-        <v>62.11912770411549</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362511</v>
       </c>
       <c r="K16" t="n">
-        <v>300.2831496757664</v>
+        <v>300.2831496757663</v>
       </c>
       <c r="L16" t="n">
         <v>557.4621512791393</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469767</v>
+        <v>836.8050913469765</v>
       </c>
       <c r="N16" t="n">
         <v>1113.046087107759</v>
@@ -5455,7 +5455,7 @@
         <v>1581.729743385192</v>
       </c>
       <c r="Q16" t="n">
-        <v>1678.203301484817</v>
+        <v>1678.203301484816</v>
       </c>
       <c r="R16" t="n">
         <v>1649.242993404582</v>
@@ -5467,19 +5467,19 @@
         <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V16" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852103</v>
+        <v>850.6627251852101</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553817</v>
+        <v>711.5230842553815</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.351704359213</v>
+        <v>583.3517043592132</v>
       </c>
     </row>
     <row r="17">
@@ -5489,64 +5489,64 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803427</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924184</v>
+        <v>68.7795079292424</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411549</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404052</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
       </c>
       <c r="M17" t="n">
-        <v>1605.072448403514</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040976</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O17" t="n">
-        <v>2572.923332933304</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P17" t="n">
-        <v>2921.110825064826</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q17" t="n">
-        <v>3105.956385205774</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205774</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829234</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.295701071059</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573994</v>
@@ -5555,7 +5555,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5577,10 +5577,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E18" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F18" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G18" t="n">
         <v>199.803798091603</v>
@@ -5589,28 +5589,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>62.11912770411549</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411549</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K18" t="n">
-        <v>381.8582737663418</v>
+        <v>381.8582737663419</v>
       </c>
       <c r="L18" t="n">
-        <v>865.424359664655</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>1493.196009291336</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N18" t="n">
-        <v>1493.196009291336</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408464</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5653,46 +5653,46 @@
         <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218801</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
         <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072663</v>
+        <v>87.33863074072666</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462913</v>
       </c>
       <c r="I19" t="n">
-        <v>62.11912770411549</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411549</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878571</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261211</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P19" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924217</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411549</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J20" t="n">
         <v>206.7689006129436</v>
@@ -5768,13 +5768,13 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q20" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205774</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
         <v>3071.119566829235</v>
@@ -5795,7 +5795,7 @@
         <v>2147.691468840155</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443164</v>
       </c>
     </row>
     <row r="21">
@@ -5814,10 +5814,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E21" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F21" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G21" t="n">
         <v>199.803798091603</v>
@@ -5826,28 +5826,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411549</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J21" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860693</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M21" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N21" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5890,46 +5890,46 @@
         <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218801</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
         <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072663</v>
+        <v>87.33863074072666</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462913</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411549</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411549</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222406</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6614512960404</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>499.9530296343044</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>683.1426636655136</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296503</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5969,28 +5969,28 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292424</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L23" t="n">
         <v>1059.071548358934</v>
@@ -6014,7 +6014,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6023,7 +6023,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
         <v>2405.46733722469</v>
@@ -6066,22 +6066,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M24" t="n">
-        <v>978.5393418843826</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P24" t="n">
         <v>2146.089571124861</v>
@@ -6148,25 +6148,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M25" t="n">
         <v>623.4297566485498</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P25" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1636.711281188296</v>
+        <v>1835.670734401736</v>
       </c>
       <c r="C26" t="n">
-        <v>1338.476460978414</v>
+        <v>1537.435914191855</v>
       </c>
       <c r="D26" t="n">
-        <v>1288.80741221341</v>
+        <v>1246.935466695711</v>
       </c>
       <c r="E26" t="n">
-        <v>981.1645686171433</v>
+        <v>939.292623099444</v>
       </c>
       <c r="F26" t="n">
-        <v>659.2108114343094</v>
+        <v>617.3388659166103</v>
       </c>
       <c r="G26" t="n">
-        <v>340.988737209501</v>
+        <v>299.1167916918014</v>
       </c>
       <c r="H26" t="n">
-        <v>111.8463680631799</v>
+        <v>69.97442254548037</v>
       </c>
       <c r="I26" t="n">
-        <v>68.44993244283312</v>
+        <v>69.97442254548037</v>
       </c>
       <c r="J26" t="n">
-        <v>213.0997053516612</v>
+        <v>264.5650504944524</v>
       </c>
       <c r="K26" t="n">
-        <v>572.082061379123</v>
+        <v>716.5987682514875</v>
       </c>
       <c r="L26" t="n">
-        <v>1158.453714827225</v>
+        <v>1302.97042169959</v>
       </c>
       <c r="M26" t="n">
-        <v>1704.454614871806</v>
+        <v>1848.97132174417</v>
       </c>
       <c r="N26" t="n">
-        <v>2263.32124551771</v>
+        <v>2469.833967111206</v>
       </c>
       <c r="O26" t="n">
-        <v>2703.360846410038</v>
+        <v>2909.873568003534</v>
       </c>
       <c r="P26" t="n">
-        <v>3144.599700271134</v>
+        <v>3258.061060135056</v>
       </c>
       <c r="Q26" t="n">
-        <v>3422.496622141656</v>
+        <v>3442.906620276005</v>
       </c>
       <c r="R26" t="n">
-        <v>3422.496622141656</v>
+        <v>3498.721127274018</v>
       </c>
       <c r="S26" t="n">
-        <v>3350.923748369894</v>
+        <v>3427.148253502257</v>
       </c>
       <c r="T26" t="n">
-        <v>3222.3638272165</v>
+        <v>3298.588332348862</v>
       </c>
       <c r="U26" t="n">
-        <v>3061.551778938287</v>
+        <v>3137.776284070649</v>
       </c>
       <c r="V26" t="n">
-        <v>2814.385650928993</v>
+        <v>3013.345104142435</v>
       </c>
       <c r="W26" t="n">
-        <v>2538.327297184469</v>
+        <v>2737.286750397911</v>
       </c>
       <c r="X26" t="n">
-        <v>2243.815373404715</v>
+        <v>2442.774826618155</v>
       </c>
       <c r="Y26" t="n">
-        <v>1942.265345612504</v>
+        <v>2141.224798825945</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>867.8159155828641</v>
+        <v>869.3404056855113</v>
       </c>
       <c r="C27" t="n">
-        <v>717.1616851429563</v>
+        <v>718.6861752456035</v>
       </c>
       <c r="D27" t="n">
-        <v>587.0727177644367</v>
+        <v>588.5972078670839</v>
       </c>
       <c r="E27" t="n">
-        <v>450.6262268753243</v>
+        <v>452.1507169779716</v>
       </c>
       <c r="F27" t="n">
-        <v>326.1944207584561</v>
+        <v>327.7189108611034</v>
       </c>
       <c r="G27" t="n">
-        <v>206.1346028303206</v>
+        <v>207.6590929329678</v>
       </c>
       <c r="H27" t="n">
-        <v>117.8371864309215</v>
+        <v>119.3616765335688</v>
       </c>
       <c r="I27" t="n">
-        <v>68.44993244283312</v>
+        <v>69.97442254548037</v>
       </c>
       <c r="J27" t="n">
-        <v>181.5649146625605</v>
+        <v>183.0894047652077</v>
       </c>
       <c r="K27" t="n">
-        <v>501.304060724787</v>
+        <v>502.8285508274342</v>
       </c>
       <c r="L27" t="n">
-        <v>984.8701466231003</v>
+        <v>986.3946367257474</v>
       </c>
       <c r="M27" t="n">
-        <v>1230.2787245562</v>
+        <v>1092.545526039269</v>
       </c>
       <c r="N27" t="n">
-        <v>1230.2787245562</v>
+        <v>1748.323497249828</v>
       </c>
       <c r="O27" t="n">
-        <v>1746.799007147181</v>
+        <v>1748.323497249828</v>
       </c>
       <c r="P27" t="n">
-        <v>2152.420375863579</v>
+        <v>2153.944865966226</v>
       </c>
       <c r="Q27" t="n">
-        <v>2386.785467418469</v>
+        <v>2388.309957521116</v>
       </c>
       <c r="R27" t="n">
-        <v>2362.868424316533</v>
+        <v>2364.392914419181</v>
       </c>
       <c r="S27" t="n">
-        <v>2227.937747216402</v>
+        <v>2229.46223731905</v>
       </c>
       <c r="T27" t="n">
-        <v>2050.953935415311</v>
+        <v>2052.478425517958</v>
       </c>
       <c r="U27" t="n">
-        <v>1840.890792093953</v>
+        <v>1842.4152821966</v>
       </c>
       <c r="V27" t="n">
-        <v>1618.35079046502</v>
+        <v>1619.875280567667</v>
       </c>
       <c r="W27" t="n">
-        <v>1388.233544598306</v>
+        <v>1389.758034700954</v>
       </c>
       <c r="X27" t="n">
-        <v>1198.926466948318</v>
+        <v>1200.450957050965</v>
       </c>
       <c r="Y27" t="n">
-        <v>1019.612250023825</v>
+        <v>1021.136740126473</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>499.4151716938178</v>
+        <v>500.9396617964651</v>
       </c>
       <c r="C28" t="n">
-        <v>424.1507350469953</v>
+        <v>425.6752251496427</v>
       </c>
       <c r="D28" t="n">
-        <v>363.4583032366983</v>
+        <v>364.9827933393458</v>
       </c>
       <c r="E28" t="n">
-        <v>302.8401723830892</v>
+        <v>304.3646624857366</v>
       </c>
       <c r="F28" t="n">
-        <v>240.4549188832505</v>
+        <v>241.9794089858979</v>
       </c>
       <c r="G28" t="n">
-        <v>167.1415462698844</v>
+        <v>168.6660363725317</v>
       </c>
       <c r="H28" t="n">
-        <v>106.6036765185669</v>
+        <v>108.1281666212141</v>
       </c>
       <c r="I28" t="n">
-        <v>68.44993244283312</v>
+        <v>69.97442254548037</v>
       </c>
       <c r="J28" t="n">
-        <v>131.7275515749689</v>
+        <v>133.2520416776163</v>
       </c>
       <c r="K28" t="n">
-        <v>306.6139544144839</v>
+        <v>308.1384445171313</v>
       </c>
       <c r="L28" t="n">
-        <v>563.792956017857</v>
+        <v>565.3174461205044</v>
       </c>
       <c r="M28" t="n">
-        <v>843.1358960856944</v>
+        <v>844.6603861883417</v>
       </c>
       <c r="N28" t="n">
-        <v>1119.376891846477</v>
+        <v>1120.901381949124</v>
       </c>
       <c r="O28" t="n">
-        <v>1375.133020617758</v>
+        <v>1376.657510720406</v>
       </c>
       <c r="P28" t="n">
-        <v>1588.06054812391</v>
+        <v>1589.585038226557</v>
       </c>
       <c r="Q28" t="n">
-        <v>1684.534106223534</v>
+        <v>1686.058596326181</v>
       </c>
       <c r="R28" t="n">
-        <v>1655.5737981433</v>
+        <v>1657.098288245947</v>
       </c>
       <c r="S28" t="n">
-        <v>1547.698395613037</v>
+        <v>1549.222885715684</v>
       </c>
       <c r="T28" t="n">
-        <v>1406.92002506846</v>
+        <v>1408.444515171107</v>
       </c>
       <c r="U28" t="n">
-        <v>1216.421914597549</v>
+        <v>1217.946404700196</v>
       </c>
       <c r="V28" t="n">
-        <v>1045.383250705562</v>
+        <v>1046.907740808209</v>
       </c>
       <c r="W28" t="n">
-        <v>856.9935299239278</v>
+        <v>858.5180200265751</v>
       </c>
       <c r="X28" t="n">
-        <v>717.8538889940992</v>
+        <v>719.3783790967465</v>
       </c>
       <c r="Y28" t="n">
-        <v>589.6825090979307</v>
+        <v>591.2069992005781</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1648.400310773115</v>
+        <v>1712.935786320659</v>
       </c>
       <c r="C29" t="n">
-        <v>1350.165490563234</v>
+        <v>1414.700966110778</v>
       </c>
       <c r="D29" t="n">
-        <v>1059.66504306709</v>
+        <v>1124.200518614634</v>
       </c>
       <c r="E29" t="n">
-        <v>752.0221994708224</v>
+        <v>816.5576750183668</v>
       </c>
       <c r="F29" t="n">
-        <v>430.0684422879885</v>
+        <v>494.6039178355327</v>
       </c>
       <c r="G29" t="n">
-        <v>111.84636806318</v>
+        <v>176.3818436107238</v>
       </c>
       <c r="H29" t="n">
-        <v>111.84636806318</v>
+        <v>69.97442254548038</v>
       </c>
       <c r="I29" t="n">
-        <v>68.44993244283313</v>
+        <v>69.97442254548038</v>
       </c>
       <c r="J29" t="n">
-        <v>213.0997053516612</v>
+        <v>307.6755571838818</v>
       </c>
       <c r="K29" t="n">
-        <v>665.1334231086963</v>
+        <v>666.6579132113436</v>
       </c>
       <c r="L29" t="n">
-        <v>1251.505076556798</v>
+        <v>1209.919059970017</v>
       </c>
       <c r="M29" t="n">
-        <v>1797.505976601379</v>
+        <v>1848.971321744171</v>
       </c>
       <c r="N29" t="n">
-        <v>2325.317260238841</v>
+        <v>2376.782605381633</v>
       </c>
       <c r="O29" t="n">
-        <v>2765.35686113117</v>
+        <v>2909.873568003535</v>
       </c>
       <c r="P29" t="n">
-        <v>3113.544353262691</v>
+        <v>3258.061060135057</v>
       </c>
       <c r="Q29" t="n">
-        <v>3391.441275133213</v>
+        <v>3442.906620276005</v>
       </c>
       <c r="R29" t="n">
-        <v>3422.496622141657</v>
+        <v>3498.721127274019</v>
       </c>
       <c r="S29" t="n">
-        <v>3350.923748369896</v>
+        <v>3427.148253502258</v>
       </c>
       <c r="T29" t="n">
-        <v>3222.363827216501</v>
+        <v>3298.588332348863</v>
       </c>
       <c r="U29" t="n">
-        <v>3073.240808523105</v>
+        <v>3137.77628407065</v>
       </c>
       <c r="V29" t="n">
-        <v>2826.074680513812</v>
+        <v>2890.610156061357</v>
       </c>
       <c r="W29" t="n">
-        <v>2550.016326769288</v>
+        <v>2614.551802316833</v>
       </c>
       <c r="X29" t="n">
-        <v>2255.504402989533</v>
+        <v>2320.039878537078</v>
       </c>
       <c r="Y29" t="n">
-        <v>1953.954375197323</v>
+        <v>2018.489850744867</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>867.8159155828641</v>
+        <v>869.3404056855113</v>
       </c>
       <c r="C30" t="n">
-        <v>717.1616851429563</v>
+        <v>718.6861752456035</v>
       </c>
       <c r="D30" t="n">
-        <v>587.0727177644367</v>
+        <v>588.5972078670839</v>
       </c>
       <c r="E30" t="n">
-        <v>450.6262268753243</v>
+        <v>452.1507169779716</v>
       </c>
       <c r="F30" t="n">
-        <v>326.1944207584561</v>
+        <v>327.7189108611034</v>
       </c>
       <c r="G30" t="n">
-        <v>206.1346028303206</v>
+        <v>207.6590929329678</v>
       </c>
       <c r="H30" t="n">
-        <v>117.8371864309215</v>
+        <v>119.3616765335688</v>
       </c>
       <c r="I30" t="n">
-        <v>68.44993244283313</v>
+        <v>69.97442254548038</v>
       </c>
       <c r="J30" t="n">
-        <v>181.5649146625605</v>
+        <v>69.97442254548038</v>
       </c>
       <c r="K30" t="n">
-        <v>501.304060724787</v>
+        <v>389.7135686077068</v>
       </c>
       <c r="L30" t="n">
-        <v>984.8701466231003</v>
+        <v>873.2796545060201</v>
       </c>
       <c r="M30" t="n">
-        <v>984.8701466231003</v>
+        <v>1501.051304132701</v>
       </c>
       <c r="N30" t="n">
-        <v>1230.2787245562</v>
+        <v>2153.944865966226</v>
       </c>
       <c r="O30" t="n">
-        <v>1746.799007147181</v>
+        <v>2153.944865966226</v>
       </c>
       <c r="P30" t="n">
-        <v>2152.420375863579</v>
+        <v>2153.944865966226</v>
       </c>
       <c r="Q30" t="n">
-        <v>2386.785467418469</v>
+        <v>2388.309957521116</v>
       </c>
       <c r="R30" t="n">
-        <v>2362.868424316533</v>
+        <v>2364.392914419181</v>
       </c>
       <c r="S30" t="n">
-        <v>2227.937747216402</v>
+        <v>2229.46223731905</v>
       </c>
       <c r="T30" t="n">
-        <v>2050.953935415311</v>
+        <v>2052.478425517958</v>
       </c>
       <c r="U30" t="n">
-        <v>1840.890792093953</v>
+        <v>1842.4152821966</v>
       </c>
       <c r="V30" t="n">
-        <v>1618.35079046502</v>
+        <v>1619.875280567667</v>
       </c>
       <c r="W30" t="n">
-        <v>1388.233544598306</v>
+        <v>1389.758034700954</v>
       </c>
       <c r="X30" t="n">
-        <v>1198.926466948318</v>
+        <v>1200.450957050965</v>
       </c>
       <c r="Y30" t="n">
-        <v>1019.612250023825</v>
+        <v>1021.136740126473</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>499.4151716938178</v>
+        <v>500.9396617964653</v>
       </c>
       <c r="C31" t="n">
-        <v>424.1507350469953</v>
+        <v>425.6752251496429</v>
       </c>
       <c r="D31" t="n">
-        <v>363.4583032366984</v>
+        <v>364.982793339346</v>
       </c>
       <c r="E31" t="n">
-        <v>302.8401723830893</v>
+        <v>304.3646624857369</v>
       </c>
       <c r="F31" t="n">
-        <v>240.4549188832508</v>
+        <v>241.9794089858981</v>
       </c>
       <c r="G31" t="n">
-        <v>167.1415462698846</v>
+        <v>168.6660363725321</v>
       </c>
       <c r="H31" t="n">
-        <v>106.6036765185669</v>
+        <v>108.1281666212144</v>
       </c>
       <c r="I31" t="n">
-        <v>68.44993244283313</v>
+        <v>69.97442254548038</v>
       </c>
       <c r="J31" t="n">
-        <v>131.7275515749691</v>
+        <v>133.2520416776163</v>
       </c>
       <c r="K31" t="n">
-        <v>306.6139544144842</v>
+        <v>308.1384445171309</v>
       </c>
       <c r="L31" t="n">
-        <v>563.7929560178573</v>
+        <v>565.3174461205037</v>
       </c>
       <c r="M31" t="n">
-        <v>843.1358960856946</v>
+        <v>844.6603861883411</v>
       </c>
       <c r="N31" t="n">
-        <v>1119.376891846477</v>
+        <v>1120.901381949124</v>
       </c>
       <c r="O31" t="n">
-        <v>1375.133020617758</v>
+        <v>1376.657510720405</v>
       </c>
       <c r="P31" t="n">
-        <v>1588.06054812391</v>
+        <v>1589.585038226557</v>
       </c>
       <c r="Q31" t="n">
-        <v>1684.534106223535</v>
+        <v>1686.058596326181</v>
       </c>
       <c r="R31" t="n">
-        <v>1655.5737981433</v>
+        <v>1657.098288245947</v>
       </c>
       <c r="S31" t="n">
-        <v>1547.698395613037</v>
+        <v>1549.222885715685</v>
       </c>
       <c r="T31" t="n">
-        <v>1406.92002506846</v>
+        <v>1408.444515171107</v>
       </c>
       <c r="U31" t="n">
-        <v>1216.421914597549</v>
+        <v>1217.946404700197</v>
       </c>
       <c r="V31" t="n">
-        <v>1045.383250705562</v>
+        <v>1046.907740808209</v>
       </c>
       <c r="W31" t="n">
-        <v>856.9935299239277</v>
+        <v>858.5180200265752</v>
       </c>
       <c r="X31" t="n">
-        <v>717.8538889940991</v>
+        <v>719.3783790967466</v>
       </c>
       <c r="Y31" t="n">
-        <v>589.6825090979307</v>
+        <v>591.2069992005783</v>
       </c>
     </row>
     <row r="32">
@@ -6692,16 +6692,16 @@
         <v>261.1858216803435</v>
       </c>
       <c r="H32" t="n">
-        <v>68.7795079292424</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I32" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J32" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K32" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L32" t="n">
         <v>1059.071548358934</v>
@@ -6734,10 +6734,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V32" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W32" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X32" t="n">
         <v>2147.691468840156</v>
@@ -6783,19 +6783,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L33" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M33" t="n">
-        <v>1223.947919817482</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N33" t="n">
-        <v>1223.947919817482</v>
+        <v>1778.52287682331</v>
       </c>
       <c r="O33" t="n">
-        <v>1740.468202408463</v>
+        <v>1778.52287682331</v>
       </c>
       <c r="P33" t="n">
-        <v>2146.089571124861</v>
+        <v>2184.144245539707</v>
       </c>
       <c r="Q33" t="n">
         <v>2380.454662679751</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C34" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D34" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E34" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F34" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G34" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H34" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I34" t="n">
         <v>62.11912770411553</v>
@@ -6865,16 +6865,16 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M34" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N34" t="n">
-        <v>806.619390679759</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O34" t="n">
-        <v>969.3241577214671</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P34" t="n">
-        <v>1089.200323498046</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q34" t="n">
         <v>1098.20216247628</v>
@@ -6886,22 +6886,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T34" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U34" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V34" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W34" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X34" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y34" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="35">
@@ -6920,13 +6920,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
         <v>68.7795079292422</v>
@@ -6971,10 +6971,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>96.81867335321709</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1208.156408878212</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7093,22 +7093,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>67.69877031229885</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>278.5901810446693</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>442.7178209184691</v>
+        <v>313.6614512960402</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567331</v>
+        <v>499.9530296343043</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879423</v>
+        <v>683.1426636655135</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296503</v>
+        <v>845.8474307072216</v>
       </c>
       <c r="P37" t="n">
         <v>1094.779966106229</v>
@@ -7154,19 +7154,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803433</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924244</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,10 +7208,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>175.2341099238429</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>175.2341099238429</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M39" t="n">
-        <v>803.0057595505241</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N39" t="n">
-        <v>1458.783730761083</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O39" t="n">
-        <v>1975.304013352064</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7333,16 +7333,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>442.7178209184691</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567331</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879423</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
         <v>974.9038003296503</v>
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1578.622946400959</v>
+        <v>1428.779014516734</v>
       </c>
       <c r="C41" t="n">
-        <v>1461.64107126071</v>
+        <v>1144.120190589892</v>
       </c>
       <c r="D41" t="n">
-        <v>1189.696621049587</v>
+        <v>999.0302531962127</v>
       </c>
       <c r="E41" t="n">
-        <v>900.609774738341</v>
+        <v>704.9634058829854</v>
       </c>
       <c r="F41" t="n">
-        <v>597.2120148405284</v>
+        <v>396.5856449831913</v>
       </c>
       <c r="G41" t="n">
-        <v>297.545937900741</v>
+        <v>91.93956704142258</v>
       </c>
       <c r="H41" t="n">
-        <v>86.95956603944119</v>
+        <v>91.93956704142258</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,25 +7436,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3052.939508719036</v>
+        <v>3047.959507717055</v>
       </c>
       <c r="T41" t="n">
-        <v>3052.939508719036</v>
+        <v>2932.9755828467</v>
       </c>
       <c r="U41" t="n">
-        <v>2910.683457725845</v>
+        <v>2785.739530851527</v>
       </c>
       <c r="V41" t="n">
-        <v>2682.073327001573</v>
+        <v>2552.149399125273</v>
       </c>
       <c r="W41" t="n">
-        <v>2424.57097054207</v>
+        <v>2289.667041663788</v>
       </c>
       <c r="X41" t="n">
-        <v>2148.615044047336</v>
+        <v>2008.731114167073</v>
       </c>
       <c r="Y41" t="n">
-        <v>1865.621013540146</v>
+        <v>1720.757082657903</v>
       </c>
     </row>
     <row r="42">
@@ -7488,16 +7488,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M42" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>363.192385959952</v>
+        <v>398.0523929738218</v>
       </c>
       <c r="C43" t="n">
-        <v>306.4839465981508</v>
+        <v>336.3639526100392</v>
       </c>
       <c r="D43" t="n">
-        <v>264.3475120728751</v>
+        <v>289.2475170827821</v>
       </c>
       <c r="E43" t="n">
-        <v>222.2853785042871</v>
+        <v>242.2053825122127</v>
       </c>
       <c r="F43" t="n">
-        <v>178.4561222894696</v>
+        <v>193.3961252954138</v>
       </c>
       <c r="G43" t="n">
-        <v>123.6987469611246</v>
+        <v>133.6587489650874</v>
       </c>
       <c r="H43" t="n">
-        <v>81.71687449482812</v>
+        <v>86.69687549680953</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>143.5834797753006</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>225.4185208852425</v>
+        <v>250.3113645006379</v>
       </c>
       <c r="L43" t="n">
-        <v>389.5461607590422</v>
+        <v>486.431432338628</v>
       </c>
       <c r="M43" t="n">
-        <v>687.0758337659288</v>
+        <v>779.0802063634726</v>
       </c>
       <c r="N43" t="n">
-        <v>872.8280263988954</v>
+        <v>962.2698403946818</v>
       </c>
       <c r="O43" t="n">
-        <v>1035.532793440603</v>
+        <v>1231.33180312297</v>
       </c>
       <c r="P43" t="n">
-        <v>1266.647053885805</v>
+        <v>1457.565164586129</v>
       </c>
       <c r="Q43" t="n">
-        <v>1381.307344924478</v>
+        <v>1460.98736095618</v>
       </c>
       <c r="R43" t="n">
-        <v>1370.903034129265</v>
+        <v>1445.603049158985</v>
       </c>
       <c r="S43" t="n">
-        <v>1281.583628884023</v>
+        <v>1351.303642911763</v>
       </c>
       <c r="T43" t="n">
-        <v>1159.361255624467</v>
+        <v>1224.101268650225</v>
       </c>
       <c r="U43" t="n">
-        <v>987.4191424385774</v>
+        <v>1047.179154462354</v>
       </c>
       <c r="V43" t="n">
-        <v>834.9364758316111</v>
+        <v>889.7164868534066</v>
       </c>
       <c r="W43" t="n">
-        <v>665.1027523349983</v>
+        <v>714.9027623548124</v>
       </c>
       <c r="X43" t="n">
-        <v>544.5191086901909</v>
+        <v>589.3391177080235</v>
       </c>
       <c r="Y43" t="n">
-        <v>434.9037260790438</v>
+        <v>474.743734094895</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1741.319894185569</v>
+        <v>1428.779014516734</v>
       </c>
       <c r="C44" t="n">
-        <v>1461.64107126071</v>
+        <v>1144.120190589892</v>
       </c>
       <c r="D44" t="n">
-        <v>1189.696621049587</v>
+        <v>969.2098138589058</v>
       </c>
       <c r="E44" t="n">
-        <v>900.609774738341</v>
+        <v>675.1429665456783</v>
       </c>
       <c r="F44" t="n">
-        <v>597.2120148405284</v>
+        <v>366.7652056458843</v>
       </c>
       <c r="G44" t="n">
-        <v>297.545937900741</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>86.95956603944117</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,25 +7673,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3052.939508719036</v>
+        <v>3047.959507717055</v>
       </c>
       <c r="T44" t="n">
-        <v>2942.935584850663</v>
+        <v>2932.9755828467</v>
       </c>
       <c r="U44" t="n">
-        <v>2800.679533857471</v>
+        <v>2785.739530851527</v>
       </c>
       <c r="V44" t="n">
-        <v>2572.069403133199</v>
+        <v>2552.149399125273</v>
       </c>
       <c r="W44" t="n">
-        <v>2314.567046673696</v>
+        <v>2289.667041663789</v>
       </c>
       <c r="X44" t="n">
-        <v>2038.611120178962</v>
+        <v>2008.731114167074</v>
       </c>
       <c r="Y44" t="n">
-        <v>1755.617089671772</v>
+        <v>1720.757082657902</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L45" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M45" t="n">
-        <v>1009.629923393023</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N45" t="n">
-        <v>1665.407894603582</v>
+        <v>1458.783730761083</v>
       </c>
       <c r="O45" t="n">
-        <v>2181.928177194563</v>
+        <v>1975.304013352064</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>363.1923859599519</v>
+        <v>398.0523929738221</v>
       </c>
       <c r="C46" t="n">
-        <v>306.4839465981507</v>
+        <v>336.3639526100394</v>
       </c>
       <c r="D46" t="n">
-        <v>264.347512072875</v>
+        <v>289.2475170827822</v>
       </c>
       <c r="E46" t="n">
-        <v>222.285378504287</v>
+        <v>242.2053825122128</v>
       </c>
       <c r="F46" t="n">
-        <v>178.4561222894695</v>
+        <v>193.3961252954139</v>
       </c>
       <c r="G46" t="n">
-        <v>123.6987469611246</v>
+        <v>133.6587489650875</v>
       </c>
       <c r="H46" t="n">
-        <v>81.7168744948281</v>
+        <v>86.69687549680955</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7810,46 +7810,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>414.4390043744378</v>
       </c>
       <c r="M46" t="n">
-        <v>605.6114816947438</v>
+        <v>707.0877783992823</v>
       </c>
       <c r="N46" t="n">
-        <v>900.0392103945755</v>
+        <v>890.2774124304915</v>
       </c>
       <c r="O46" t="n">
-        <v>1062.743977436284</v>
+        <v>1124.97460743639</v>
       </c>
       <c r="P46" t="n">
-        <v>1293.858237881485</v>
+        <v>1351.207968899549</v>
       </c>
       <c r="Q46" t="n">
-        <v>1381.307344924478</v>
+        <v>1460.987360956181</v>
       </c>
       <c r="R46" t="n">
-        <v>1370.903034129264</v>
+        <v>1445.603049158986</v>
       </c>
       <c r="S46" t="n">
-        <v>1281.583628884023</v>
+        <v>1351.303642911763</v>
       </c>
       <c r="T46" t="n">
-        <v>1159.361255624467</v>
+        <v>1224.101268650226</v>
       </c>
       <c r="U46" t="n">
-        <v>987.4191424385773</v>
+        <v>1047.179154462355</v>
       </c>
       <c r="V46" t="n">
-        <v>834.936475831611</v>
+        <v>889.716486853407</v>
       </c>
       <c r="W46" t="n">
-        <v>665.1027523349982</v>
+        <v>714.9027623548127</v>
       </c>
       <c r="X46" t="n">
-        <v>544.5191086901908</v>
+        <v>589.3391177080239</v>
       </c>
       <c r="Y46" t="n">
-        <v>434.9037260790437</v>
+        <v>474.7437340948953</v>
       </c>
     </row>
   </sheetData>
@@ -7976,19 +7976,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>167.2723012869711</v>
       </c>
       <c r="L2" t="n">
-        <v>360.915257634209</v>
+        <v>646.4691104827261</v>
       </c>
       <c r="M2" t="n">
-        <v>662.0021186330523</v>
+        <v>642.9459923499617</v>
       </c>
       <c r="N2" t="n">
-        <v>661.3955583731091</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -8058,19 +8058,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>548.6693728845835</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>578.5930536064011</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>303.2631427421397</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8219,16 +8219,16 @@
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>565.8463264934076</v>
       </c>
       <c r="M5" t="n">
-        <v>149.7250515977273</v>
+        <v>642.9459923499617</v>
       </c>
       <c r="N5" t="n">
-        <v>187.6043791750128</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
@@ -8292,25 +8292,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>92.72534723762172</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>604.6641890846369</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>597.6491798894916</v>
+        <v>578.5930536064011</v>
       </c>
       <c r="O6" t="n">
-        <v>604.9646259242139</v>
+        <v>217.0267240478609</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>90.98815315591399</v>
@@ -8453,13 +8453,13 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>492.6922186134283</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>688.2664872512298</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
         <v>149.1184913377841</v>
@@ -8529,13 +8529,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>238.3374974274122</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
@@ -8544,13 +8544,13 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>577.6575640662504</v>
       </c>
       <c r="P9" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8708,7 +8708,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294496</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8766,19 +8766,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
-        <v>577.006990218999</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>624.8237719316268</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8787,7 +8787,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,25 +9003,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>165.8788395891221</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>108.8653421701425</v>
       </c>
       <c r="O15" t="n">
-        <v>92.68755888888901</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
         <v>327.7205688679246</v>
@@ -9249,19 +9249,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>438.5811111539143</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416683</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>342.4574509263917</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9483,13 +9483,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>163.9964000092958</v>
       </c>
       <c r="M21" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>569.9919810238538</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9498,7 +9498,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,25 +9714,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>373.8515870339854</v>
       </c>
       <c r="Q24" t="n">
         <v>327.7205688679246</v>
@@ -9960,13 +9960,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>340.2745745069883</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,16 +10197,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118431</v>
+        <v>744.8605591506561</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10431,22 +10431,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>289.2815038024237</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10662,28 +10662,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10899,16 +10899,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>517.3131487114046</v>
       </c>
       <c r="N39" t="n">
         <v>747.7741039759435</v>
@@ -10917,10 +10917,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>259.5940292362812</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,10 +11136,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>112.3087888732267</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
@@ -11148,7 +11148,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11373,10 +11373,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
         <v>90.06034685691823</v>
@@ -11391,10 +11391,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>287.6151683397065</v>
+        <v>259.5940292362812</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>230.4905691364584</v>
       </c>
       <c r="F11" t="n">
-        <v>318.7342196110055</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
-        <v>226.7962030080146</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-4.902744876744691e-13</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23498,10 +23498,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>14.11306200385626</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414338</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,10 +23552,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>229.2701811477979</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>273.2977702070789</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.968558980384842e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24446,7 +24446,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>238.423084743829</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24461,7 +24461,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24500,7 +24500,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>121.5075986002677</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24695,10 +24695,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>226.8509454548578</v>
+        <v>121.5075986002668</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24734,7 +24734,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>11.57213928897045</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -25628,10 +25628,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>161.0699783067652</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>130.5161686812307</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>213.4107091346484</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25679,7 +25679,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>108.9038846296901</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25862,13 +25862,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>269.9738629364549</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>100.9939337372962</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>213.4107091346484</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>29.52223494393401</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>730170.6520739476</v>
+        <v>728789.8336143075</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>730170.6520739476</v>
+        <v>728789.8336143075</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>704487.4118809218</v>
+        <v>704487.411880922</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>704487.4118809218</v>
+        <v>704487.411880922</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>727099.7251686723</v>
+        <v>732544.8856542439</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>727099.7251686724</v>
+        <v>732544.8856542439</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>724776.6413703493</v>
+        <v>719331.4808847773</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>724776.6413703493</v>
+        <v>719331.4808847773</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595096.1877080773</v>
+      </c>
+      <c r="C2" t="n">
+        <v>595096.1877080775</v>
+      </c>
+      <c r="D2" t="n">
         <v>595096.1877080776</v>
       </c>
-      <c r="C2" t="n">
-        <v>595096.1877080776</v>
-      </c>
-      <c r="D2" t="n">
-        <v>595096.1877080774</v>
-      </c>
       <c r="E2" t="n">
-        <v>559271.204854686</v>
+        <v>559271.2048546864</v>
       </c>
       <c r="F2" t="n">
-        <v>559271.2048546859</v>
+        <v>559271.2048546857</v>
       </c>
       <c r="G2" t="n">
+        <v>595096.1877080778</v>
+      </c>
+      <c r="H2" t="n">
+        <v>595096.1877080778</v>
+      </c>
+      <c r="I2" t="n">
         <v>595096.1877080777</v>
       </c>
-      <c r="H2" t="n">
-        <v>595096.1877080777</v>
-      </c>
-      <c r="I2" t="n">
-        <v>595096.1877080776</v>
-      </c>
       <c r="J2" t="n">
-        <v>579438.9437329498</v>
+        <v>584295.4382200816</v>
       </c>
       <c r="K2" t="n">
-        <v>579438.9437329503</v>
+        <v>584295.4382200814</v>
       </c>
       <c r="L2" t="n">
-        <v>595096.1877080776</v>
+        <v>595096.1877080778</v>
       </c>
       <c r="M2" t="n">
         <v>595096.1877080777</v>
@@ -26350,10 +26350,10 @@
         <v>595096.1877080777</v>
       </c>
       <c r="O2" t="n">
-        <v>577367.0041290397</v>
+        <v>572510.5096419075</v>
       </c>
       <c r="P2" t="n">
-        <v>577367.0041290399</v>
+        <v>572510.5096419075</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>171675.8275360792</v>
+        <v>165289.6813277111</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>24581.72344984813</v>
+        <v>30501.12795716454</v>
       </c>
       <c r="E3" t="n">
-        <v>130452.931137712</v>
+        <v>130452.9311377122</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301435</v>
+        <v>29094.95587301434</v>
       </c>
       <c r="H3" t="n">
-        <v>2.293954216262338e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.209268702950794e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>200837.4980720422</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>58189.91174602872</v>
+        <v>58189.91174602867</v>
       </c>
       <c r="M3" t="n">
-        <v>46121.92123989155</v>
+        <v>46121.92123989169</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>31699.45768316122</v>
+        <v>27755.29688959195</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>238615.3248246001</v>
+        <v>242370.3115962889</v>
       </c>
       <c r="C4" t="n">
-        <v>238615.3248246001</v>
+        <v>242370.3115962889</v>
       </c>
       <c r="D4" t="n">
         <v>223021.8565516675</v>
@@ -26439,10 +26439,10 @@
         <v>199269.1699682603</v>
       </c>
       <c r="J4" t="n">
-        <v>188938.3872119905</v>
+        <v>192375.5280079682</v>
       </c>
       <c r="K4" t="n">
-        <v>188938.3872119905</v>
+        <v>192375.5280079683</v>
       </c>
       <c r="L4" t="n">
         <v>199269.1699682603</v>
@@ -26454,10 +26454,10 @@
         <v>199269.1699682603</v>
       </c>
       <c r="O4" t="n">
-        <v>187091.6797433471</v>
+        <v>183756.6055360513</v>
       </c>
       <c r="P4" t="n">
-        <v>187091.6797433471</v>
+        <v>183756.6055360513</v>
       </c>
     </row>
     <row r="5">
@@ -26467,34 +26467,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64774.04567574775</v>
+        <v>63615.43319773585</v>
       </c>
       <c r="C5" t="n">
-        <v>64774.04567574775</v>
+        <v>63615.43319773585</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>55112.28950890907</v>
+        <v>55112.28950890911</v>
       </c>
       <c r="F5" t="n">
-        <v>55112.28950890907</v>
+        <v>55112.28950890911</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551962</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551963</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>59923.70111033447</v>
+        <v>61082.31358834638</v>
       </c>
       <c r="K5" t="n">
-        <v>59923.70111033448</v>
+        <v>61082.3135883464</v>
       </c>
       <c r="L5" t="n">
         <v>58169.76931551966</v>
@@ -26506,10 +26506,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>56656.67380330601</v>
+        <v>56242.19673611279</v>
       </c>
       <c r="P5" t="n">
-        <v>56656.67380330601</v>
+        <v>56242.19673611279</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>120030.9896716506</v>
+        <v>123820.7615863414</v>
       </c>
       <c r="C6" t="n">
-        <v>291706.8172077298</v>
+        <v>289110.4429140527</v>
       </c>
       <c r="D6" t="n">
-        <v>277907.1504293886</v>
+        <v>271987.7459220724</v>
       </c>
       <c r="E6" t="n">
-        <v>199041.1348832866</v>
+        <v>198932.5743291855</v>
       </c>
       <c r="F6" t="n">
-        <v>329494.0660209986</v>
+        <v>329385.505466897</v>
       </c>
       <c r="G6" t="n">
-        <v>308562.2925512834</v>
+        <v>308562.2925512835</v>
       </c>
       <c r="H6" t="n">
-        <v>337657.2484242975</v>
+        <v>337657.2484242978</v>
       </c>
       <c r="I6" t="n">
-        <v>337657.2484242975</v>
+        <v>337657.2484242977</v>
       </c>
       <c r="J6" t="n">
-        <v>129739.3573385826</v>
+        <v>129967.3690078217</v>
       </c>
       <c r="K6" t="n">
-        <v>330576.8554106252</v>
+        <v>330804.8670798636</v>
       </c>
       <c r="L6" t="n">
-        <v>279467.3366782689</v>
+        <v>279467.3366782691</v>
       </c>
       <c r="M6" t="n">
-        <v>291535.3271844062</v>
+        <v>291535.3271844061</v>
       </c>
       <c r="N6" t="n">
         <v>337657.2484242977</v>
       </c>
       <c r="O6" t="n">
-        <v>301919.1928992253</v>
+        <v>304687.9690314661</v>
       </c>
       <c r="P6" t="n">
-        <v>333618.6505823868</v>
+        <v>332443.265921058</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,10 +26707,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="P2" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
     </row>
     <row r="3">
@@ -26787,34 +26787,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>512.277067035325</v>
+        <v>493.2209407522345</v>
       </c>
       <c r="C4" t="n">
-        <v>512.277067035325</v>
+        <v>493.2209407522345</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>776.4890963014436</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="F4" t="n">
-        <v>776.4890963014436</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014436</v>
+        <v>776.489096301444</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014436</v>
+        <v>776.489096301444</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>855.6241555354139</v>
+        <v>874.6802818185046</v>
       </c>
       <c r="K4" t="n">
-        <v>855.6241555354142</v>
+        <v>874.6802818185047</v>
       </c>
       <c r="L4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126794</v>
+        <v>36.36869484126792</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,19 +26932,19 @@
         <v>57.62257963304852</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>72.73738968253591</v>
+        <v>72.73738968253583</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.62432210395153</v>
+        <v>34.69412111198994</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.995864235617982e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>512.277067035325</v>
+        <v>493.2209407522345</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>79.13505923397008</v>
+        <v>98.1911855170606</v>
       </c>
       <c r="E4" t="n">
-        <v>185.0769700321486</v>
+        <v>185.076970032149</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.412126269295</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>185.0769700321486</v>
+        <v>185.076970032149</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126794</v>
+        <v>36.36869484126792</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>57.62257963304852</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>512.277067035325</v>
+        <v>493.2209407522345</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>79.13505923397008</v>
+        <v>98.1911855170606</v>
       </c>
       <c r="M4" t="n">
-        <v>185.0769700321486</v>
+        <v>185.076970032149</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>253.6753952597363</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>211.404003756632</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>94.47415797444353</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27512,7 +27512,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>11.73038375164052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>128.1091850427962</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>75.25134650297792</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>287.4770951422764</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>121.7927061005842</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27698,10 +27698,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>99.14482598704548</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>16.93645566294929</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27749,13 +27749,13 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>65.10665135278953</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -27792,7 +27792,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27825,19 +27825,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>19.34431822393023</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27853,25 +27853,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>28.10934074676709</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>43.0921593262744</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -28059,10 +28059,10 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>116.4854777676762</v>
+        <v>220.1322412032064</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
@@ -28071,7 +28071,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="17">
@@ -28746,7 +28746,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28758,16 +28758,16 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>128.2979821082773</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733148</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
         <v>130.3599693155844</v>
@@ -28983,7 +28983,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>5.636002634528481</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -28995,16 +28995,16 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082772</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29220,16 +29220,16 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29241,7 +29241,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>128.2979821082774</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>50.44530812135753</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>31.36903738226465</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431644</v>
+        <v>50.44530812135838</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>68.98202195959922</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="32">
@@ -29937,19 +29937,19 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N34" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>5.636002634528316</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>122.6619794737488</v>
@@ -30165,25 +30165,25 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>35.71049010668768</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>5.636002634528353</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30241,7 +30241,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30256,7 +30256,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -30405,19 +30405,19 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L40" t="n">
-        <v>5.636002634528666</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="C41" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="D41" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="E41" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="F41" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="G41" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="H41" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="I41" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="T41" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="U41" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="V41" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="W41" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="X41" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="Y41" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="C43" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="D43" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="E43" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="F43" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="G43" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="H43" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="I43" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="J43" t="n">
-        <v>112.3617117864874</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>72.71962420625277</v>
       </c>
       <c r="M43" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="N43" t="n">
-        <v>2.588443032078203</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="P43" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="Q43" t="n">
-        <v>112.3617117864874</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="S43" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="T43" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="U43" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="V43" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="W43" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="X43" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="Y43" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="C44" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="D44" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="E44" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="F44" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="G44" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="H44" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="I44" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="T44" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="U44" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="V44" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="W44" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="X44" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="Y44" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="C46" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="D46" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="E46" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="F46" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="G46" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="H46" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="I46" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="J46" t="n">
         <v>30.07448747215907</v>
@@ -30882,46 +30882,46 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="M46" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="N46" t="n">
-        <v>112.3617117864874</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>72.71962420625317</v>
       </c>
       <c r="P46" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="Q46" t="n">
-        <v>84.87566734640619</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="R46" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="S46" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="T46" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="U46" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="V46" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="W46" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="X46" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="Y46" t="n">
-        <v>112.3617117864874</v>
+        <v>107.4315107945258</v>
       </c>
     </row>
   </sheetData>
@@ -31999,25 +31999,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>-1.268688050179586e-13</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>-1.573919711319164e-13</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>-1.751288940704156e-13</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>-1.779626626680967e-13</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>-1.680450959305019e-13</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>-1.43422601515983e-13</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>-1.077044007577063e-13</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -32081,19 +32081,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.158673898314595e-13</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>-1.352117788216022e-13</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>-1.387904322718052e-13</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>-1.269661306168505e-13</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>-1.019015133518248e-13</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>24.21389810773376</v>
       </c>
       <c r="L2" t="n">
-        <v>207.6670879037173</v>
+        <v>493.2209407522345</v>
       </c>
       <c r="M2" t="n">
-        <v>512.277067035325</v>
+        <v>493.2209407522345</v>
       </c>
       <c r="N2" t="n">
-        <v>512.277067035325</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34778,19 +34778,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>456.2822508352716</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>493.2209407522345</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>210.5755838532509</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34939,16 +34939,16 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>412.5981567629158</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>493.2209407522345</v>
       </c>
       <c r="N5" t="n">
-        <v>38.48588783722872</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>3.128411904288367</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>512.277067035325</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>512.277067035325</v>
+        <v>493.2209407522345</v>
       </c>
       <c r="O6" t="n">
-        <v>512.277067035325</v>
+        <v>124.339165158972</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35173,13 +35173,13 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>349.6338154341909</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>538.5414356535026</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>148.7405620940789</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
@@ -35264,13 +35264,13 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>484.9700051773615</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35428,7 +35428,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110575</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>484.6198681696871</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>539.4516590774601</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35507,7 +35507,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
@@ -35583,10 +35583,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P13" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,25 +35647,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K14" t="n">
-        <v>362.6084404317795</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
-        <v>498.3033249682108</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
-        <v>551.5160606510913</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N14" t="n">
-        <v>533.1427107449109</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>444.4844453457861</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
-        <v>351.7045375065875</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.712687011059</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>75.81849273220372</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006879</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217767</v>
+        <v>23.49322931597588</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589872</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>236.7324157120106</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M16" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N16" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O16" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P16" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>146.1108817260889</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
-        <v>362.6084404317795</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>498.3033249682108</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
-        <v>551.5160606510913</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N17" t="n">
-        <v>533.1427107449109</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>444.4844453457861</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065875</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.712687011059</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062892</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>488.4505918164779</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006879</v>
+        <v>346.1939891046024</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>249.7698920375027</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589872</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
@@ -36054,16 +36054,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716074</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>131.7547461184298</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>7.697989841835607</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P20" t="n">
         <v>351.7045375065877</v>
@@ -36203,13 +36203,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>484.6198681696871</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36218,7 +36218,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>88.29766032133845</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36291,16 +36291,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.636002634528405</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>286.7682222146707</v>
       </c>
       <c r="Q24" t="n">
         <v>236.7324157120106</v>
@@ -36516,16 +36516,16 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094874</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>5.636002634528635</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>196.5561898474465</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
@@ -36604,19 +36604,19 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
-        <v>564.5117481271758</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>56.37828989698316</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>247.8874524576764</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>548.7486330895694</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853755</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
-        <v>31.36903738226594</v>
+        <v>56.37828989698319</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,16 +36917,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576764</v>
+        <v>659.4884462964894</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>236.7324157120106</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215737</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37151,22 +37151,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>198.2933506465097</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,19 +37233,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N34" t="n">
-        <v>315.4000036905432</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P34" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>9.092766644680799</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>35.0500461102036</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.636002634528606</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565483</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37479,7 +37479,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
@@ -37552,7 +37552,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N38" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O38" t="n">
         <v>444.4844453457863</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>424.9260266620927</v>
       </c>
       <c r="N39" t="n">
         <v>662.4019911217769</v>
@@ -37637,10 +37637,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>172.5106644169666</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>171.4214974565487</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716074</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>22.71185353989334</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
@@ -37868,7 +37868,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>82.28722431432834</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>82.66165768680997</v>
+        <v>190.0931684813358</v>
       </c>
       <c r="L43" t="n">
-        <v>165.78549482202</v>
+        <v>238.5051190282728</v>
       </c>
       <c r="M43" t="n">
-        <v>300.5350232392794</v>
+        <v>295.6048222473178</v>
       </c>
       <c r="N43" t="n">
-        <v>187.628477407037</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>164.3482495370789</v>
+        <v>271.7797603316047</v>
       </c>
       <c r="P43" t="n">
-        <v>233.4487479244456</v>
+        <v>228.518546932484</v>
       </c>
       <c r="Q43" t="n">
-        <v>115.8184757966399</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,10 +38111,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>200.5318035203919</v>
+        <v>172.5106644169666</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,22 +38178,22 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>165.78549482202</v>
+        <v>273.2170056165458</v>
       </c>
       <c r="M46" t="n">
-        <v>300.5350232392794</v>
+        <v>295.6048222473178</v>
       </c>
       <c r="N46" t="n">
-        <v>297.4017461614462</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>164.3482495370789</v>
+        <v>237.067873743332</v>
       </c>
       <c r="P46" t="n">
-        <v>233.4487479244456</v>
+        <v>228.518546932484</v>
       </c>
       <c r="Q46" t="n">
-        <v>88.33243135655867</v>
+        <v>110.8882748046783</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
